--- a/JP/1b_後半ギミックデザイン.xlsx
+++ b/JP/1b_後半ギミックデザイン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiera\JP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA1227F-3292-4E26-A196-BD4F588B575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99CCED-4ACC-4D76-AEC9-B28609CCBEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="783" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="783" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設定" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="510">
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4217,58 +4217,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">幻惑のワルツ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>迷乱のソナチネ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を詠唱（二者択一、前回と関係なし）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ボスが</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>デュエット</t>
     </r>
     <r>
@@ -5577,10 +5525,6 @@
   </si>
   <si>
     <t>ガチョウはそれぞれDPS一人に線がつないで、つながれたDPSに向かってゆっくり移動する</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（別途の説明がついてない場合は、HP上限とはタンクロール以外のプレイヤーのHP上限のこと、ダメージ量は軽減やバリアなどがない状態のダメージ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7751,27 +7695,241 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>フィールド北側外周にチェシャ猫が出現、ランダム左手か右手が光る</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アリス劇場最後の</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
+    <t>（ギミック最後まで持てる暖かさが足りないため一本ずつマッチをトリガーするやり方は不正解）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ランダム1人のタンクが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>タンク二人頭割り</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マークがついて、もう1人はマークなし</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（3）ヒラ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>少女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のデバフを付与、残り</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タンヒラ3人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>デバフを付与</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ボスが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劇場開幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を詠唱、詠唱時間10s。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダメージはHP上限の120%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP上限5%のダメージを与える</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、そして30mノックバック、ダメージ0にしてもノックバック、アムレン有効。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤーが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ミニマム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状態なら、ノックバック距離が45mになり、かつアムレン無効になる。（必ず落ちる）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>劇場閉幕判定時に、プレイヤー全員が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>エターナルドリーム</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -7795,20 +7953,154 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>デバフが処理成功の場合、手が青く光る（単なるノックバック）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>処理失敗した場合、手が赤く光る（この時</t>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>デバフ両方を同時に持ってることで処理成功となる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功か失敗かによって最後の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夢幻パラダイス</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のギミック後半の内容が変わる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>流星の直線範囲着弾時に少女の暖かさ数値を判定する：暖かさ10点につき</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夢幻パラダイス</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ギミック後半にプレイヤー1人に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のデバフを付与</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夢幻パラダイス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を成功処理するには暖かさ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が必要、ただしここで50点足りなくても少女が死ななければギミックは続行できる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最後にボスが再びフィールド中央に出現し、</t>
     </r>
     <r>
       <rPr>
@@ -7818,7 +8110,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>小さなメロディ</t>
+      <t>アブラカダブラ</t>
     </r>
     <r>
       <rPr>
@@ -7828,417 +8120,37 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>がないため全滅）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（ギミック最後まで持てる暖かさが足りないため一本ずつマッチをトリガーするやり方は不正解）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ランダム1人のタンクが</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>タンク二人頭割り</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>マークがついて、もう1人はマークなし</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（3）ヒラ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>少女</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>のデバフを付与、残り</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>タンヒラ3人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>マッチ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>デバフを付与</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ボスが</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>劇場開幕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を詠唱、詠唱時間10s。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ダメージはHP上限の120%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP上限5%のダメージを与える</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、そして30mノックバック、ダメージ0にしてもノックバック、アムレン有効。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>プレイヤーが</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ミニマム</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状態なら、ノックバック距離が45mになり、かつアムレン無効になる。（必ず落ちる）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>劇場閉幕判定時に、プレイヤー全員が</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>エターナルドリーム</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>と</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>睡眠</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>デバフ両方を同時に持ってることで処理成功となる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>成功か失敗かによって最後の</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夢幻パラダイス</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>のギミック後半の内容が変わる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>流星の直線範囲着弾時に少女の暖かさ数値を判定する：暖かさ10点につき</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夢幻パラダイス</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ギミック後半にプレイヤー1人に</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>マッチ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>のデバフを付与</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夢幻パラダイス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を成功処理するには暖かさ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が必要、ただしここで50点足りなくても少女が死ななければギミックは続行できる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最後にボスが再びフィールド中央に出現し、</t>
+      <t>を詠唱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔の出現から判定の時間は全部8s。ここの白黒デバフの継続時間は40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>処理失敗した場合、手が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>赤く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>光る（フィールド全域スワイプ、この時</t>
     </r>
     <r>
       <rPr>
@@ -8248,7 +8160,7 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>アブラカダブラ</t>
+      <t>小さなメロディ</t>
     </r>
     <r>
       <rPr>
@@ -8258,12 +8170,232 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>を詠唱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔の出現から判定の時間は全部8s。ここの白黒デバフの継続時間は40s</t>
+      <t>がないため全滅）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>アリス劇場最後の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>エターナルドリーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>睡眠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>デバフが処理成功の場合、手が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>光る（光ってる手のほうのフィールド半分を範囲攻撃）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>フィールド北側外周にチェシャ猫が出現、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>ランダム左手か右手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が光る</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ボスが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">幻惑のワルツ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迷乱のソナチネ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を詠唱（二者択一、前回違うほう）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（別途の説明がついてない場合は、HP上限とはタンクロール以外のプレイヤーのHP上限のこと、ダメージ量は軽減</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>バリア</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・タンクロールの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20％軽減</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>などがない状態のダメージ）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（座標表示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（ダメージ合計はタンクHP上限の180%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8271,7 +8403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8871,6 +9003,22 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -8977,7 +9125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9263,12 +9411,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9298,6 +9440,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10726,17 +10877,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K22"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="13.88671875" style="3" customWidth="1"/>
-    <col min="3" max="11" width="8.88671875" style="3"/>
+    <col min="3" max="9" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="13.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="3"/>
     <col min="12" max="12" width="13" style="3" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -10780,15 +10933,30 @@
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="I13" s="142" t="s">
+        <v>508</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -10835,24 +11003,6 @@
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
       <c r="K18" s="64"/>
-    </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
-        <v>304</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10865,7 +11015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -10877,7 +11027,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="137" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="57"/>
@@ -10888,13 +11038,13 @@
       <c r="G2" s="57"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
@@ -10908,7 +11058,7 @@
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10927,7 +11077,7 @@
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10936,41 +11086,41 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-    </row>
-    <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="99" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="140" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="28"/>
@@ -10978,41 +11128,43 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K33" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="140" t="s">
+      <c r="B35" s="138" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="28"/>
@@ -11032,7 +11184,7 @@
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11054,8 +11206,8 @@
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="140" t="s">
-        <v>341</v>
+      <c r="B45" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -11078,7 +11230,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="138" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="28"/>
@@ -11144,12 +11296,12 @@
         <v>56</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11185,8 +11337,8 @@
   </sheetPr>
   <dimension ref="A2:N100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11203,7 +11355,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -11215,17 +11367,17 @@
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -11234,7 +11386,7 @@
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -11266,7 +11418,7 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
@@ -11292,12 +11444,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="46"/>
+      <c r="E35" s="14" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="36" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="46"/>
@@ -11398,7 +11553,7 @@
     </row>
     <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -11449,8 +11604,8 @@
   </sheetPr>
   <dimension ref="A2:L160"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72:D73"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11471,7 +11626,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -11483,7 +11638,7 @@
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B4" s="108" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="97"/>
@@ -11492,39 +11647,39 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="98"/>
       <c r="D7" s="26" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>345</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11532,40 +11687,40 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="99" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F17" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F18" s="99" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D20" s="26" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B23" s="108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="97"/>
@@ -11574,7 +11729,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -11582,32 +11737,32 @@
         <v>132</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D28" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" s="26" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E30" s="26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C34" s="100" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
@@ -11617,37 +11772,37 @@
     </row>
     <row r="35" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D38" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D39" s="26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D40" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E41" s="116" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C44" s="100" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
@@ -11657,42 +11812,42 @@
     </row>
     <row r="45" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D48" s="26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D49" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D51" s="26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D52" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D54" s="99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C57" s="100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D57" s="101"/>
       <c r="E57" s="101"/>
@@ -11702,56 +11857,56 @@
     </row>
     <row r="58" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C58" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D61" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D62" s="26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D63" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D64" s="26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E65" s="99" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E66" s="117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E67" s="117"/>
       <c r="F67" s="26" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E68" s="30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11762,7 +11917,7 @@
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11770,23 +11925,23 @@
         <v>132</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="26" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C76" s="26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -11794,7 +11949,7 @@
     </row>
     <row r="78" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B78" s="108" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C78" s="97"/>
       <c r="D78" s="97"/>
@@ -11803,7 +11958,7 @@
     </row>
     <row r="103" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B103" s="108" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C103" s="97"/>
       <c r="D103" s="97"/>
@@ -11813,18 +11968,18 @@
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C105" s="105" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D105" s="105" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E105" s="102"/>
       <c r="F105" s="102"/>
       <c r="I105" s="106" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J105" s="106" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K105" s="107"/>
       <c r="L105" s="107"/>
@@ -11839,18 +11994,18 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C107" s="119" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D107" s="119" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E107" s="63"/>
       <c r="F107" s="63"/>
       <c r="I107" s="119" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J107" s="119" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
@@ -11861,7 +12016,7 @@
         <v>20</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
@@ -11885,7 +12040,7 @@
         <v>60</v>
       </c>
       <c r="K110" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
@@ -11893,10 +12048,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E111" s="101" t="s">
         <v>380</v>
-      </c>
-      <c r="E111" s="101" t="s">
-        <v>382</v>
       </c>
       <c r="I111" s="120">
         <v>16</v>
@@ -11965,7 +12120,7 @@
         <v>40</v>
       </c>
       <c r="K116" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
@@ -12002,10 +12157,10 @@
         <v>24</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K119" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
@@ -12016,7 +12171,7 @@
         <v>70</v>
       </c>
       <c r="E120" s="101" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I120" s="120">
         <v>25</v>
@@ -12042,10 +12197,10 @@
         <v>27</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K122" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
@@ -12056,7 +12211,7 @@
         <v>60</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I123" s="120">
         <v>28</v>
@@ -12084,10 +12239,10 @@
         <v>30</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K125" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
@@ -12121,16 +12276,16 @@
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="121" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I128" s="120">
         <v>33</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K128" s="28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.25">
@@ -12141,7 +12296,7 @@
         <v>40</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F129" s="121"/>
       <c r="I129" s="120">
@@ -12156,7 +12311,7 @@
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="121" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I130" s="120">
         <v>35</v>
@@ -12177,7 +12332,7 @@
         <v>70</v>
       </c>
       <c r="K131" s="121" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="132" spans="3:11" x14ac:dyDescent="0.25">
@@ -12185,13 +12340,13 @@
         <v>24</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F132" s="121" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I132" s="120">
         <v>37</v>
@@ -12205,14 +12360,14 @@
       </c>
       <c r="E133" s="28"/>
       <c r="F133" s="121" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I133" s="120">
         <v>38</v>
       </c>
       <c r="J133" s="1"/>
       <c r="K133" s="121" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="134" spans="3:11" x14ac:dyDescent="0.25">
@@ -12234,20 +12389,20 @@
         <v>27</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F135" s="121" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I135" s="120">
         <v>40</v>
       </c>
       <c r="J135" s="1"/>
       <c r="K135" s="121" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="3:11" x14ac:dyDescent="0.25">
@@ -12261,7 +12416,7 @@
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="121" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="3:11" x14ac:dyDescent="0.25">
@@ -12283,10 +12438,10 @@
         <v>30</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F138" s="121"/>
       <c r="I138" s="120">
@@ -12294,7 +12449,7 @@
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="121" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="3:11" x14ac:dyDescent="0.25">
@@ -12315,7 +12470,7 @@
       </c>
       <c r="E140" s="28"/>
       <c r="F140" s="121" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I140" s="120">
         <v>45</v>
@@ -12330,10 +12485,10 @@
         <v>33</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F141" s="121"/>
       <c r="I141" s="120">
@@ -12348,7 +12503,7 @@
       </c>
       <c r="E142" s="28"/>
       <c r="F142" s="121" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I142" s="120">
         <v>47</v>
@@ -12369,7 +12524,7 @@
         <v>30</v>
       </c>
       <c r="K143" s="121" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.25">
@@ -12391,14 +12546,14 @@
         <v>37</v>
       </c>
       <c r="F145" s="121" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I145" s="120">
         <v>50</v>
       </c>
       <c r="J145" s="1"/>
       <c r="K145" s="121" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -12406,7 +12561,7 @@
         <v>38</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I146" s="120">
         <v>51</v>
@@ -12435,10 +12590,10 @@
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="121" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L148" s="122" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -12471,12 +12626,12 @@
         <v>45</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B157" s="123"/>
       <c r="C157" s="84" t="s">
@@ -12567,7 +12722,7 @@
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>87</v>
@@ -12806,63 +12961,63 @@
         <v>107</v>
       </c>
       <c r="G40" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="H40" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="I40" s="69" t="s">
         <v>328</v>
-      </c>
-      <c r="I40" s="69" t="s">
-        <v>329</v>
       </c>
       <c r="J40" s="71" t="s">
         <v>108</v>
       </c>
       <c r="K40" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="L40" s="69" t="s">
+      <c r="M40" s="70" t="s">
         <v>328</v>
-      </c>
-      <c r="M40" s="70" t="s">
-        <v>329</v>
       </c>
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
     </row>
     <row r="41" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G41" s="70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H41" s="72"/>
       <c r="I41" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" s="69" t="s">
         <v>330</v>
-      </c>
-      <c r="K41" s="69" t="s">
-        <v>331</v>
       </c>
       <c r="L41" s="72"/>
       <c r="M41" s="69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G42" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="H42" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="H42" s="70" t="s">
+      <c r="I42" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="I42" s="69" t="s">
-        <v>334</v>
-      </c>
       <c r="K42" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="L42" s="69" t="s">
+      <c r="M42" s="70" t="s">
         <v>333</v>
-      </c>
-      <c r="M42" s="70" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="44" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13063,7 +13218,7 @@
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
@@ -13101,7 +13256,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13114,7 +13269,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -13257,12 +13412,12 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D43" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
@@ -13325,7 +13480,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -13333,7 +13488,7 @@
         <v>149</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -13348,17 +13503,17 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B83" s="44" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C83" s="44"/>
       <c r="K83" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B84" s="44"/>
       <c r="C84" s="44" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -13396,7 +13551,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>158</v>
@@ -13464,8 +13619,8 @@
   </sheetPr>
   <dimension ref="A2:S170"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13505,12 +13660,12 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="134" t="s">
-        <v>473</v>
+      <c r="A9" s="132" t="s">
+        <v>471</v>
       </c>
       <c r="B9" s="123"/>
       <c r="C9" s="123"/>
@@ -13520,7 +13675,7 @@
       <c r="G9" s="123"/>
     </row>
     <row r="10" spans="1:10" s="75" customFormat="1" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A10" s="138"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -13529,13 +13684,13 @@
       <c r="G10" s="112"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -13557,7 +13712,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="44"/>
       <c r="C16" s="80" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -13599,13 +13754,13 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="131" t="s">
-        <v>310</v>
-      </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
+      <c r="B48" s="129" t="s">
+        <v>309</v>
+      </c>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="80" t="s">
@@ -13614,12 +13769,12 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="80" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I52" s="23" t="s">
         <v>199</v>
@@ -13627,17 +13782,17 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
@@ -13647,7 +13802,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="44" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
@@ -13655,7 +13810,7 @@
         <v>202</v>
       </c>
       <c r="E62" s="81" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -13673,8 +13828,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A127" s="134" t="s">
-        <v>474</v>
+      <c r="A127" s="132" t="s">
+        <v>472</v>
       </c>
       <c r="B127" s="123"/>
       <c r="C127" s="123"/>
@@ -13685,13 +13840,13 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="75"/>
-      <c r="B129" s="131" t="s">
-        <v>472</v>
-      </c>
-      <c r="C129" s="132"/>
-      <c r="D129" s="132"/>
-      <c r="E129" s="132"/>
-      <c r="F129" s="132"/>
+      <c r="B129" s="129" t="s">
+        <v>470</v>
+      </c>
+      <c r="C129" s="130"/>
+      <c r="D129" s="130"/>
+      <c r="E129" s="130"/>
+      <c r="F129" s="130"/>
       <c r="G129" s="75"/>
       <c r="H129" s="75"/>
       <c r="I129" s="75"/>
@@ -13730,8 +13885,8 @@
     <row r="131" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A131" s="75"/>
       <c r="B131" s="75"/>
-      <c r="C131" s="135" t="s">
-        <v>476</v>
+      <c r="C131" s="133" t="s">
+        <v>474</v>
       </c>
       <c r="D131" s="75"/>
       <c r="E131" s="75"/>
@@ -13775,7 +13930,7 @@
       <c r="A133" s="75"/>
       <c r="B133" s="75"/>
       <c r="C133" s="75" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D133" s="75"/>
       <c r="E133" s="75"/>
@@ -13797,8 +13952,8 @@
     <row r="134" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A134" s="75"/>
       <c r="B134" s="75"/>
-      <c r="C134" s="136" t="s">
-        <v>478</v>
+      <c r="C134" s="134" t="s">
+        <v>476</v>
       </c>
       <c r="D134" s="75"/>
       <c r="E134" s="75"/>
@@ -13842,7 +13997,7 @@
       <c r="A136" s="112"/>
       <c r="B136" s="75"/>
       <c r="C136" s="100" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D136" s="101"/>
       <c r="E136" s="101"/>
@@ -13885,8 +14040,8 @@
     <row r="138" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A138" s="75"/>
       <c r="B138" s="75"/>
-      <c r="C138" s="135" t="s">
-        <v>480</v>
+      <c r="C138" s="133" t="s">
+        <v>478</v>
       </c>
       <c r="D138" s="75"/>
       <c r="E138" s="75"/>
@@ -13909,8 +14064,8 @@
       <c r="A139" s="75"/>
       <c r="B139" s="75"/>
       <c r="C139" s="75"/>
-      <c r="D139" s="135" t="s">
-        <v>484</v>
+      <c r="D139" s="133" t="s">
+        <v>482</v>
       </c>
       <c r="E139" s="75"/>
       <c r="F139" s="75"/>
@@ -13933,7 +14088,7 @@
       <c r="B140" s="75"/>
       <c r="C140" s="75"/>
       <c r="D140" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E140" s="75"/>
       <c r="F140" s="75"/>
@@ -13956,7 +14111,7 @@
       <c r="B141" s="75"/>
       <c r="C141" s="75"/>
       <c r="D141" s="75" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E141" s="75"/>
       <c r="F141" s="75"/>
@@ -13998,8 +14153,8 @@
     <row r="143" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A143" s="75"/>
       <c r="B143" s="75"/>
-      <c r="C143" s="135" t="s">
-        <v>483</v>
+      <c r="C143" s="133" t="s">
+        <v>481</v>
       </c>
       <c r="D143" s="75"/>
       <c r="E143" s="75"/>
@@ -14022,8 +14177,8 @@
       <c r="A144" s="75"/>
       <c r="B144" s="75"/>
       <c r="C144" s="75"/>
-      <c r="D144" s="135" t="s">
-        <v>485</v>
+      <c r="D144" s="133" t="s">
+        <v>483</v>
       </c>
       <c r="E144" s="75"/>
       <c r="F144" s="75"/>
@@ -14046,11 +14201,11 @@
       <c r="B145" s="75"/>
       <c r="C145" s="75"/>
       <c r="D145" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E145" s="75"/>
-      <c r="F145" s="137" t="s">
-        <v>495</v>
+      <c r="F145" s="135" t="s">
+        <v>490</v>
       </c>
       <c r="G145" s="75"/>
       <c r="H145" s="75"/>
@@ -14090,8 +14245,8 @@
     <row r="147" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A147" s="75"/>
       <c r="B147" s="75"/>
-      <c r="C147" s="135" t="s">
-        <v>487</v>
+      <c r="C147" s="133" t="s">
+        <v>485</v>
       </c>
       <c r="D147" s="75"/>
       <c r="E147" s="75"/>
@@ -14114,8 +14269,8 @@
       <c r="A148" s="75"/>
       <c r="B148" s="75"/>
       <c r="C148" s="75"/>
-      <c r="D148" s="135" t="s">
-        <v>488</v>
+      <c r="D148" s="133" t="s">
+        <v>486</v>
       </c>
       <c r="E148" s="75"/>
       <c r="F148" s="75"/>
@@ -14137,8 +14292,8 @@
       <c r="A149" s="75"/>
       <c r="B149" s="75"/>
       <c r="C149" s="75"/>
-      <c r="D149" s="133" t="s">
-        <v>490</v>
+      <c r="D149" s="131" t="s">
+        <v>488</v>
       </c>
       <c r="E149" s="75"/>
       <c r="F149" s="75"/>
@@ -14160,8 +14315,8 @@
       <c r="A150" s="75"/>
       <c r="B150" s="75"/>
       <c r="C150" s="75"/>
-      <c r="D150" s="135" t="s">
-        <v>489</v>
+      <c r="D150" s="133" t="s">
+        <v>487</v>
       </c>
       <c r="E150" s="75"/>
       <c r="F150" s="75"/>
@@ -14202,13 +14357,13 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="75"/>
-      <c r="B152" s="131" t="s">
-        <v>491</v>
-      </c>
-      <c r="C152" s="132"/>
-      <c r="D152" s="132"/>
-      <c r="E152" s="132"/>
-      <c r="F152" s="132"/>
+      <c r="B152" s="129" t="s">
+        <v>489</v>
+      </c>
+      <c r="C152" s="130"/>
+      <c r="D152" s="130"/>
+      <c r="E152" s="130"/>
+      <c r="F152" s="130"/>
       <c r="G152" s="75"/>
       <c r="H152" s="75"/>
       <c r="I152" s="75"/>
@@ -14242,8 +14397,8 @@
     <row r="154" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A154" s="75"/>
       <c r="B154" s="75"/>
-      <c r="C154" s="135" t="s">
-        <v>492</v>
+      <c r="C154" s="133" t="s">
+        <v>505</v>
       </c>
       <c r="D154" s="75"/>
       <c r="E154" s="75"/>
@@ -14287,7 +14442,7 @@
       <c r="A156" s="75"/>
       <c r="B156" s="75"/>
       <c r="C156" s="75" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="D156" s="75"/>
       <c r="E156" s="75"/>
@@ -14330,8 +14485,8 @@
     <row r="158" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A158" s="75"/>
       <c r="B158" s="75"/>
-      <c r="C158" s="135" t="s">
-        <v>494</v>
+      <c r="C158" s="133" t="s">
+        <v>503</v>
       </c>
       <c r="D158" s="75"/>
       <c r="E158" s="75"/>
@@ -14415,8 +14570,8 @@
     </row>
     <row r="162" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A162" s="75"/>
-      <c r="B162" s="135" t="s">
-        <v>506</v>
+      <c r="B162" s="133" t="s">
+        <v>501</v>
       </c>
       <c r="C162" s="75"/>
       <c r="D162" s="75"/>
@@ -14465,7 +14620,7 @@
       <c r="A164" s="75"/>
       <c r="B164" s="26"/>
       <c r="C164" s="26" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
@@ -14550,9 +14705,9 @@
   </sheetPr>
   <dimension ref="A1:BF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14601,7 +14756,7 @@
       <c r="F1" s="59"/>
       <c r="G1" s="59"/>
       <c r="K1" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L1" s="57"/>
       <c r="M1" s="57"/>
@@ -14610,7 +14765,7 @@
       <c r="P1" s="57"/>
       <c r="Q1" s="57"/>
       <c r="T1" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
@@ -14631,7 +14786,7 @@
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
       <c r="AO1" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP1" s="28"/>
       <c r="AQ1" s="28"/>
@@ -14640,7 +14795,7 @@
       <c r="AT1" s="28"/>
       <c r="AU1" s="28"/>
       <c r="AX1" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AY1" s="57"/>
       <c r="AZ1" s="57"/>
@@ -14666,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T2" s="61">
         <v>9.0277777777777776E-2</v>
@@ -14675,9 +14830,9 @@
         <v>0</v>
       </c>
       <c r="V2" s="93" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB2" s="127"/>
+        <v>412</v>
+      </c>
+      <c r="AB2" s="125"/>
       <c r="AC2" s="33"/>
       <c r="AD2" s="61">
         <v>0.14305555555555555</v>
@@ -14695,7 +14850,7 @@
       <c r="AQ2" s="43"/>
       <c r="AR2" s="49"/>
       <c r="AS2" s="43"/>
-      <c r="AV2" s="127"/>
+      <c r="AV2" s="125"/>
       <c r="AX2" s="61">
         <v>0.26944444444444443</v>
       </c>
@@ -14703,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BA2" s="36"/>
       <c r="BC2" s="36"/>
@@ -14718,7 +14873,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T3" s="61">
         <f>$T$2+U3</f>
@@ -14728,7 +14883,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="V3" s="94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC3" s="33"/>
       <c r="AD3" s="61">
@@ -14741,7 +14896,7 @@
       <c r="AF3" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="AM3" s="130"/>
+      <c r="AM3" s="128"/>
       <c r="AN3" s="33"/>
       <c r="AO3" s="61">
         <v>0.18333333333333335</v>
@@ -14760,7 +14915,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="AZ3" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BA3" s="36"/>
       <c r="BC3" s="36"/>
@@ -14786,9 +14941,9 @@
       <c r="T4" s="61"/>
       <c r="U4" s="29"/>
       <c r="V4" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC4" s="128"/>
+        <v>469</v>
+      </c>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="61"/>
       <c r="AE4" s="42" t="s">
         <v>12</v>
@@ -14818,10 +14973,10 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="AZ4" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BB4" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
@@ -14838,21 +14993,21 @@
       <c r="M5" s="8"/>
       <c r="T5" s="61"/>
       <c r="V5" s="26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC5" s="33"/>
       <c r="AD5" s="61">
-        <f t="shared" ref="AD4:AD22" si="0">$AD$2+AE5</f>
+        <f t="shared" ref="AD5:AD22" si="0">$AD$2+AE5</f>
         <v>0.15208333333333332</v>
       </c>
       <c r="AE5" s="55">
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="AF5" s="26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AM5" s="63"/>
-      <c r="AN5" s="128"/>
+      <c r="AN5" s="126"/>
       <c r="AO5" s="61"/>
       <c r="AQ5" s="26" t="s">
         <v>264</v>
@@ -14867,7 +15022,7 @@
     </row>
     <row r="6" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K6" s="61">
-        <f t="shared" ref="K5:K22" si="1">$K$2+L6</f>
+        <f t="shared" ref="K6:K22" si="1">$K$2+L6</f>
         <v>5.347222222222222E-2</v>
       </c>
       <c r="L6" s="31">
@@ -14885,21 +15040,21 @@
         <v>249</v>
       </c>
       <c r="AM6" s="63"/>
-      <c r="AN6" s="128"/>
+      <c r="AN6" s="126"/>
       <c r="AO6" s="61"/>
       <c r="AQ6" s="26" t="s">
         <v>265</v>
       </c>
       <c r="AW6" s="35"/>
       <c r="AX6" s="61">
-        <f t="shared" ref="AX5:AX36" si="2">$AX$2+AY6</f>
+        <f t="shared" ref="AX6:AX35" si="2">$AX$2+AY6</f>
         <v>0.27638888888888885</v>
       </c>
       <c r="AY6" s="29">
         <v>6.9444444444444449E-3</v>
       </c>
       <c r="AZ6" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BA6" s="36"/>
       <c r="BB6" s="36"/>
@@ -14924,16 +15079,16 @@
         <v>226</v>
       </c>
       <c r="T7" s="61">
-        <f t="shared" ref="T4:T34" si="3">$T$2+U7</f>
+        <f t="shared" ref="T7:T34" si="3">$T$2+U7</f>
         <v>9.930555555555555E-2</v>
       </c>
       <c r="U7" s="29">
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="V7" s="93" t="s">
-        <v>417</v>
-      </c>
-      <c r="AC7" s="128"/>
+        <v>415</v>
+      </c>
+      <c r="AC7" s="126"/>
       <c r="AD7" s="61"/>
       <c r="AE7" s="42" t="s">
         <v>12</v>
@@ -14946,7 +15101,7 @@
       <c r="AM7" s="63"/>
       <c r="AN7" s="33"/>
       <c r="AO7" s="61">
-        <f t="shared" ref="AO5:AO39" si="4">$AO$3+AP7</f>
+        <f t="shared" ref="AO7:AO39" si="4">$AO$3+AP7</f>
         <v>0.18750000000000003</v>
       </c>
       <c r="AP7" s="29">
@@ -14989,7 +15144,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="V8" s="93" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="W8" s="63"/>
       <c r="X8" s="63"/>
@@ -15064,7 +15219,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="AZ9" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BA9" s="36"/>
       <c r="BB9" s="36"/>
@@ -15096,7 +15251,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="V10" s="93" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AC10" s="33"/>
       <c r="AD10" s="61"/>
@@ -15105,7 +15260,7 @@
         <v>252</v>
       </c>
       <c r="AM10" s="63"/>
-      <c r="AN10" s="128"/>
+      <c r="AN10" s="126"/>
       <c r="AO10" s="61"/>
       <c r="AQ10" s="26" t="s">
         <v>270</v>
@@ -15139,9 +15294,9 @@
       <c r="T11" s="61"/>
       <c r="U11" s="29"/>
       <c r="V11" s="93" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC11" s="128"/>
+        <v>418</v>
+      </c>
+      <c r="AC11" s="126"/>
       <c r="AD11" s="61"/>
       <c r="AE11" s="42" t="s">
         <v>15</v>
@@ -15152,7 +15307,7 @@
       <c r="AG11" s="41"/>
       <c r="AH11" s="41"/>
       <c r="AM11" s="63"/>
-      <c r="AN11" s="128"/>
+      <c r="AN11" s="126"/>
       <c r="AO11" s="61"/>
       <c r="AP11" s="50" t="s">
         <v>271</v>
@@ -15171,7 +15326,7 @@
       <c r="AZ11" s="36"/>
       <c r="BA11" s="36"/>
       <c r="BB11" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BC11" s="36"/>
       <c r="BD11" s="8"/>
@@ -15198,7 +15353,7 @@
         <v>254</v>
       </c>
       <c r="AM12" s="63"/>
-      <c r="AN12" s="128"/>
+      <c r="AN12" s="126"/>
       <c r="AO12" s="61"/>
       <c r="AQ12" s="41" t="s">
         <v>14</v>
@@ -15212,14 +15367,14 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="AZ12" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BA12" s="37" t="s">
         <v>8</v>
       </c>
       <c r="BB12" s="36"/>
       <c r="BC12" s="83" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BD12" s="83"/>
       <c r="BE12" s="28"/>
@@ -15268,7 +15423,7 @@
       <c r="AZ13" s="36"/>
       <c r="BA13" s="36"/>
       <c r="BB13" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BC13" s="36"/>
       <c r="BD13" s="8"/>
@@ -15278,7 +15433,7 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="K14" s="61">
         <f t="shared" si="1"/>
@@ -15298,7 +15453,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="X14" s="103" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC14" s="33"/>
       <c r="AD14" s="61"/>
@@ -15352,9 +15507,9 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="V15" s="93" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC15" s="128"/>
+        <v>420</v>
+      </c>
+      <c r="AC15" s="126"/>
       <c r="AD15" s="61"/>
       <c r="AE15" s="42" t="s">
         <v>13</v>
@@ -15387,7 +15542,7 @@
       <c r="AZ15" s="36"/>
       <c r="BA15" s="36"/>
       <c r="BB15" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BC15" s="36"/>
       <c r="BD15" s="8"/>
@@ -15411,7 +15566,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="X16" s="93" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AC16" s="33"/>
       <c r="AD16" s="61">
@@ -15437,7 +15592,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="AZ16" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BA16" s="38" t="s">
         <v>9</v>
@@ -15497,7 +15652,7 @@
       <c r="AZ17" s="36"/>
       <c r="BA17" s="36"/>
       <c r="BB17" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BC17" s="8"/>
       <c r="BD17" s="8"/>
@@ -15506,11 +15661,11 @@
       <c r="B18" s="31">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C18" s="125" t="s">
-        <v>317</v>
-      </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
+      <c r="C18" s="140" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
       <c r="K18" s="61">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
@@ -15529,13 +15684,13 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="V18" s="110" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="W18" s="63"/>
       <c r="X18" s="103" t="s">
-        <v>424</v>
-      </c>
-      <c r="AC18" s="128"/>
+        <v>422</v>
+      </c>
+      <c r="AC18" s="126"/>
       <c r="AD18" s="61"/>
       <c r="AE18" s="42" t="s">
         <v>16</v>
@@ -15570,9 +15725,9 @@
       <c r="B19" s="31">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
       <c r="K19" s="61"/>
       <c r="T19" s="61">
         <f t="shared" si="3"/>
@@ -15582,7 +15737,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="X19" s="93" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AC19" s="33"/>
       <c r="AD19" s="61">
@@ -15618,7 +15773,7 @@
       <c r="AZ19" s="36"/>
       <c r="BA19" s="36"/>
       <c r="BB19" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BC19" s="8"/>
       <c r="BD19" s="8"/>
@@ -15636,10 +15791,10 @@
       </c>
       <c r="T20" s="61"/>
       <c r="U20" s="29"/>
-      <c r="AC20" s="128"/>
+      <c r="AC20" s="126"/>
       <c r="AD20" s="61"/>
       <c r="AM20" s="63"/>
-      <c r="AN20" s="128"/>
+      <c r="AN20" s="126"/>
       <c r="AO20" s="61"/>
       <c r="AQ20" s="41" t="s">
         <v>17</v>
@@ -15685,10 +15840,10 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="V21" s="93" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="X21" s="93" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AC21" s="33"/>
       <c r="AD21" s="61">
@@ -15711,7 +15866,7 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="AQ21" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AW21" s="35"/>
       <c r="AX21" s="61">
@@ -15724,7 +15879,7 @@
       <c r="AZ21" s="36"/>
       <c r="BA21" s="36"/>
       <c r="BB21" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BC21" s="36"/>
       <c r="BD21" s="8"/>
@@ -15791,13 +15946,13 @@
       <c r="U23" s="29"/>
       <c r="AC23" s="33"/>
       <c r="AD23" s="61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE23" s="55" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF23" s="26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AM23" s="63"/>
       <c r="AN23" s="33"/>
@@ -15822,7 +15977,7 @@
       <c r="AZ23" s="36"/>
       <c r="BA23" s="36"/>
       <c r="BB23" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BC23" s="36"/>
       <c r="BD23" s="8"/>
@@ -15841,7 +15996,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="V24" s="110" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AM24" s="63"/>
       <c r="AN24" s="33"/>
@@ -15867,11 +16022,11 @@
       <c r="B25" s="55">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="C25" s="126" t="s">
-        <v>342</v>
-      </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
+      <c r="C25" s="141" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
       <c r="L25" s="34" t="s">
         <v>241</v>
       </c>
@@ -15906,7 +16061,7 @@
       <c r="AZ25" s="36"/>
       <c r="BA25" s="36"/>
       <c r="BB25" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BC25" s="36"/>
       <c r="BD25" s="8"/>
@@ -15916,9 +16071,9 @@
       <c r="B26" s="55">
         <v>0.12847222222222224</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
       <c r="T26" s="61">
         <f t="shared" si="3"/>
         <v>0.11944444444444444</v>
@@ -15927,7 +16082,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="X26" s="93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AE26" s="34" t="s">
         <v>240</v>
@@ -15944,7 +16099,7 @@
       <c r="AQ26" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="AW26" s="127"/>
+      <c r="AW26" s="125"/>
       <c r="AX26" s="61"/>
       <c r="AY26" s="29"/>
     </row>
@@ -15959,7 +16114,7 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="V27" s="93" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AM27" s="63"/>
       <c r="AN27" s="33"/>
@@ -15973,7 +16128,7 @@
       <c r="AQ27" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="AW27" s="127"/>
+      <c r="AW27" s="125"/>
       <c r="AX27" s="61">
         <f t="shared" si="2"/>
         <v>0.29444444444444445</v>
@@ -15982,11 +16137,11 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="AZ27" s="26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BA27" s="8"/>
       <c r="BB27" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BC27" s="36"/>
     </row>
@@ -16006,18 +16161,18 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="X28" s="93" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AM28" s="63"/>
-      <c r="AN28" s="128"/>
+      <c r="AN28" s="126"/>
       <c r="AO28" s="61"/>
       <c r="AP28" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ28" s="43"/>
       <c r="AR28" s="49"/>
       <c r="AS28" s="43"/>
-      <c r="AW28" s="127"/>
+      <c r="AW28" s="125"/>
       <c r="AX28" s="61"/>
       <c r="AY28" s="29"/>
       <c r="AZ28" s="8"/>
@@ -16044,9 +16199,9 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="AQ29" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="AW29" s="127"/>
+        <v>279</v>
+      </c>
+      <c r="AW29" s="125"/>
       <c r="AX29" s="61">
         <f t="shared" si="2"/>
         <v>0.29722222222222222</v>
@@ -16055,7 +16210,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="AZ29" s="26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BA29" s="36"/>
       <c r="BB29" s="36"/>
@@ -16081,9 +16236,9 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="AQ30" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="AW30" s="127"/>
+        <v>280</v>
+      </c>
+      <c r="AW30" s="125"/>
       <c r="AX30" s="61">
         <f t="shared" si="2"/>
         <v>0.29791666666666666</v>
@@ -16092,7 +16247,7 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="BB30" s="94" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BC30" s="36"/>
       <c r="BD30" s="8"/>
@@ -16107,12 +16262,12 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="X31" s="93" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AM31" s="63"/>
-      <c r="AN31" s="128"/>
+      <c r="AN31" s="126"/>
       <c r="AO31" s="61"/>
-      <c r="AW31" s="127"/>
+      <c r="AW31" s="125"/>
       <c r="AX31" s="61">
         <f t="shared" si="2"/>
         <v>0.29930555555555555</v>
@@ -16121,7 +16276,7 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="AZ31" s="93" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16140,7 +16295,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="V32" s="104" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM32" s="63"/>
       <c r="AN32" s="33"/>
@@ -16152,9 +16307,9 @@
         <v>5.347222222222222E-2</v>
       </c>
       <c r="AQ32" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="AW32" s="127"/>
+        <v>279</v>
+      </c>
+      <c r="AW32" s="125"/>
       <c r="AX32" s="61">
         <f t="shared" si="2"/>
         <v>0.30277777777777776</v>
@@ -16163,7 +16318,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="BB32" s="94" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16171,11 +16326,11 @@
       <c r="B33" s="115">
         <v>0.14305555555555557</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
       <c r="T33" s="61"/>
       <c r="AM33" s="63"/>
       <c r="AN33" s="33"/>
@@ -16187,13 +16342,13 @@
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="AQ33" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="AW33" s="127"/>
+        <v>280</v>
+      </c>
+      <c r="AW33" s="125"/>
       <c r="AX33" s="61"/>
       <c r="AY33" s="29"/>
-      <c r="AZ33" s="129" t="s">
-        <v>469</v>
+      <c r="AZ33" s="127" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16201,9 +16356,9 @@
       <c r="B34" s="115">
         <v>0.1763888888888889</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
       <c r="T34" s="61">
         <f t="shared" si="3"/>
         <v>0.12847222222222221</v>
@@ -16212,19 +16367,19 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="V34" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM34" s="63"/>
-      <c r="AN34" s="128"/>
+      <c r="AN34" s="126"/>
       <c r="AO34" s="61"/>
-      <c r="AW34" s="127"/>
+      <c r="AW34" s="125"/>
       <c r="AX34" s="61"/>
     </row>
     <row r="35" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="111"/>
       <c r="T35" s="62"/>
       <c r="V35" s="26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM35" s="63"/>
       <c r="AN35" s="33"/>
@@ -16236,9 +16391,9 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="AQ35" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="AW35" s="127"/>
+        <v>279</v>
+      </c>
+      <c r="AW35" s="125"/>
       <c r="AX35" s="61">
         <f t="shared" si="2"/>
         <v>0.30902777777777779</v>
@@ -16246,7 +16401,7 @@
       <c r="AY35" s="29">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="AZ35" s="129" t="s">
+      <c r="AZ35" s="127" t="s">
         <v>237</v>
       </c>
       <c r="BA35" s="8"/>
@@ -16258,14 +16413,14 @@
       <c r="B36" s="55">
         <v>0.18333333333333335</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
       <c r="T36" s="62"/>
       <c r="V36" s="26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AM36" s="63"/>
       <c r="AN36" s="33"/>
@@ -16277,7 +16432,7 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="AQ36" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AX36" s="61">
         <f>$AX$2+AY36</f>
@@ -16292,7 +16447,7 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="36"/>
       <c r="BC36" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BD36" s="83"/>
       <c r="BE36" s="28"/>
@@ -16303,11 +16458,11 @@
       <c r="B37" s="55">
         <v>0.25138888888888888</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
       <c r="AM37" s="63"/>
-      <c r="AN37" s="128"/>
+      <c r="AN37" s="126"/>
       <c r="AO37" s="61"/>
       <c r="AX37" s="61">
         <f>$AX$2+AY37</f>
@@ -16365,7 +16520,7 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="AQ39" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AY39" s="34" t="s">
         <v>238</v>
@@ -16382,10 +16537,10 @@
         <v>215</v>
       </c>
       <c r="AM40" s="63"/>
-      <c r="AN40" s="128"/>
+      <c r="AN40" s="126"/>
       <c r="AO40" s="62"/>
       <c r="AQ40" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AY40" s="34" t="s">
         <v>240</v>
@@ -16403,10 +16558,10 @@
         <v>214</v>
       </c>
       <c r="AM41" s="63"/>
-      <c r="AN41" s="128"/>
+      <c r="AN41" s="126"/>
       <c r="AO41" s="62"/>
       <c r="AQ41" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BB41" s="8"/>
       <c r="BC41" s="24"/>
@@ -16437,11 +16592,11 @@
       <c r="B44" s="31">
         <v>0.26944444444444443</v>
       </c>
-      <c r="C44" s="125" t="s">
+      <c r="C44" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
       <c r="AP44" s="34" t="s">
         <v>240</v>
       </c>
@@ -16451,9 +16606,9 @@
       <c r="B45" s="31">
         <v>0.31319444444444444</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
     </row>
     <row r="46" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="111"/>
@@ -16526,7 +16681,7 @@
         <v>0.33611111111111108</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/JP/1b_後半ギミックデザイン.xlsx
+++ b/JP/1b_後半ギミックデザイン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiera\JP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99CCED-4ACC-4D76-AEC9-B28609CCBEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EEE45F-2C96-4DED-8BB9-00B23061DA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="783" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="783" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設定" sheetId="2" r:id="rId1"/>
@@ -9125,7 +9125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9433,13 +9433,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9447,9 +9441,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9479,13 +9470,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -9529,13 +9520,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>575733</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -9579,13 +9570,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -10244,14 +10235,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>240453</xdr:colOff>
+      <xdr:colOff>1093893</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
@@ -10294,13 +10285,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>76202</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>292946</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
@@ -10349,14 +10340,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>517374</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37314</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -10393,14 +10384,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>105967</xdr:rowOff>
     </xdr:to>
@@ -10437,14 +10428,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>114779</xdr:rowOff>
     </xdr:to>
@@ -10481,13 +10472,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>186690</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>369570</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>179549</xdr:rowOff>
@@ -10525,14 +10516,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>29054</xdr:rowOff>
     </xdr:to>
@@ -10569,13 +10560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>138011</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>185264</xdr:rowOff>
@@ -10944,7 +10935,7 @@
       <c r="B13" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I13" s="142" t="s">
+      <c r="I13" s="137" t="s">
         <v>508</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -11015,8 +11006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11026,25 +11017,25 @@
     <col min="7" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
@@ -11086,13 +11077,13 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
@@ -11120,13 +11111,13 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
@@ -11164,13 +11155,13 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
@@ -11206,13 +11197,13 @@
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="7" t="s">
@@ -11230,13 +11221,13 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="7" t="s">
@@ -11335,10 +11326,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:N100"/>
+  <dimension ref="A2:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11376,201 +11367,201 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="B5" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="46"/>
       <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="46"/>
       <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="46"/>
       <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="53" t="s">
+    <row r="34" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="46"/>
+      <c r="D34" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
-      <c r="E35" s="14" t="s">
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="46"/>
+      <c r="F35" s="14" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="46"/>
-      <c r="C36" s="52" t="s">
+    <row r="36" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="46"/>
+      <c r="D36" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="D37" s="14" t="s">
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="46"/>
+      <c r="E37" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="46"/>
-      <c r="D38" s="14" t="s">
+    <row r="38" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="46"/>
+      <c r="E38" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="46"/>
-      <c r="K39" s="17" t="s">
+    <row r="39" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="46"/>
+      <c r="L39" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="51" t="s">
+    <row r="40" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="46"/>
+      <c r="D40" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="14" t="s">
+    <row r="62" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
+    <row r="63" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="14" t="s">
+    <row r="64" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
+    <row r="66" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="13" t="s">
+    <row r="85" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I85" s="54"/>
-      <c r="J85" s="13"/>
-      <c r="M85" s="13"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="13"/>
       <c r="N85" s="13"/>
-    </row>
-    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="14" t="s">
+      <c r="O85" s="13"/>
+    </row>
+    <row r="86" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I86" s="15"/>
-      <c r="J86" s="13"/>
-      <c r="M86" s="13"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="13"/>
       <c r="N86" s="13"/>
-    </row>
-    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="22" t="s">
+      <c r="O86" s="13"/>
+    </row>
+    <row r="88" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="47"/>
       <c r="C88" s="47"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="84" t="s">
+      <c r="D88" s="47"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="48"/>
-    </row>
-    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
+      <c r="G88" s="48"/>
+    </row>
+    <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
-    </row>
-    <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="14" t="s">
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="14" t="s">
+    <row r="93" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
         <v>82</v>
       </c>
@@ -11588,7 +11579,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E88" location="タイムライン!N2" display="タイムライン" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F88" location="タイムライン!N2" display="タイムライン" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="D95" location="夜明けローラーコースター!A1" display="トップに戻る" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11604,7 +11595,7 @@
   </sheetPr>
   <dimension ref="A2:L160"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -12674,7 +12665,7 @@
   </sheetPr>
   <dimension ref="A1:AD184"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
@@ -13216,17 +13207,18 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:K103"/>
+  <dimension ref="A2:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="20.21875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9" style="3"/>
+    <col min="2" max="2" width="10.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
     <col min="6" max="9" width="9" style="3"/>
     <col min="10" max="10" width="28.5546875" style="3" customWidth="1"/>
@@ -13246,342 +13238,342 @@
       <c r="H2" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="B4" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="76" t="s">
+      <c r="E12" s="76" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="76" t="s">
+      <c r="E13" s="76" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="76" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="76" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="77"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="D20" s="77"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B24" s="74"/>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
+      <c r="F24" s="74"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="78"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="D26" s="78"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="79" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="D28" s="86" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D37" s="3" t="s">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J38" s="76" t="s">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="76" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D41" s="3" t="s">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E41" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="3" t="s">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E43" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D44" s="3" t="s">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="75"/>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D47" s="75"/>
       <c r="E47" s="75"/>
       <c r="F47" s="75"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="75"/>
+      <c r="G47" s="75"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D48" s="75"/>
       <c r="E48" s="75"/>
       <c r="F48" s="75"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="75"/>
+      <c r="G48" s="75"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D49" s="75"/>
       <c r="E49" s="75"/>
       <c r="F49" s="75"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="78" t="s">
+      <c r="G49" s="75"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="78"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="3" t="s">
+      <c r="D67" s="78"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="3" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="74"/>
       <c r="C72" s="74"/>
       <c r="D72" s="74"/>
       <c r="E72" s="74"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="3" t="s">
+      <c r="F72" s="74"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C75" s="3" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D75" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C80" s="3" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D80" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C81" s="3" t="s">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D81" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="44" t="s">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C83" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="C83" s="44"/>
-      <c r="K83" s="87" t="s">
+      <c r="D83" s="44"/>
+      <c r="L83" s="87" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="44"/>
-      <c r="C84" s="44" t="s">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C84" s="44"/>
+      <c r="D84" s="44" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="3" t="s">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C86" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="47" t="s">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="47"/>
       <c r="C88" s="47"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="84" t="s">
+      <c r="D88" s="47"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B91" s="74"/>
       <c r="C91" s="74"/>
       <c r="D91" s="74"/>
       <c r="E91" s="74"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="3" t="s">
+      <c r="F91" s="74"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C93" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C95" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C96" s="3" t="s">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D96" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D98" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -13602,9 +13594,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E88" location="タイムライン!AR2" display="タイムライン" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="F88" location="タイムライン!AR2" display="タイムライン" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="D103" location="'人形劇場 - アリス'!A1" display="トップに戻る" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C28" location="'ギミック説明（1）'!A55" display="ギミック説明（1）" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="D28" location="'ギミック説明（1）'!A55" display="ギミック説明（1）" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13617,10 +13609,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:S170"/>
+  <dimension ref="A2:T170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13636,7 +13628,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
         <v>160</v>
       </c>
@@ -13648,206 +13640,205 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="132" t="s">
+    <row r="9" spans="1:11" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="B9" s="132" t="s">
         <v>471</v>
       </c>
-      <c r="B9" s="123"/>
       <c r="C9" s="123"/>
       <c r="D9" s="123"/>
       <c r="E9" s="123"/>
       <c r="F9" s="123"/>
       <c r="G9" s="123"/>
-    </row>
-    <row r="10" spans="1:10" s="75" customFormat="1" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A10" s="136"/>
-      <c r="B10" s="112"/>
+      <c r="H9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" s="75" customFormat="1" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="B10" s="136"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
       <c r="E10" s="112"/>
       <c r="F10" s="112"/>
       <c r="G10" s="112"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="129" t="s">
+      <c r="H10" s="112"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="130"/>
       <c r="D11" s="130"/>
       <c r="E11" s="130"/>
       <c r="F11" s="130"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="G11" s="130"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="J14" s="81"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="80" t="s">
+      <c r="K14" s="81"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="81"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="80" t="s">
+      <c r="K15" s="81"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="44"/>
+      <c r="D16" s="80" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="K19" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="129" t="s">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C48" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="C48" s="130"/>
       <c r="D48" s="130"/>
       <c r="E48" s="130"/>
       <c r="F48" s="130"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="80" t="s">
+      <c r="G48" s="130"/>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="80" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="80" t="s">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" s="80" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="I52" s="23" t="s">
+      <c r="J52" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C54" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="44" t="s">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="44" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E62" s="81" t="s">
+      <c r="F62" s="81" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="74"/>
       <c r="C84" s="74"/>
       <c r="D84" s="74"/>
       <c r="E84" s="74"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="3" t="s">
+      <c r="F84" s="74"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A127" s="132" t="s">
+    <row r="127" spans="2:8" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="B127" s="132" t="s">
         <v>472</v>
       </c>
-      <c r="B127" s="123"/>
       <c r="C127" s="123"/>
       <c r="D127" s="123"/>
       <c r="E127" s="123"/>
       <c r="F127" s="123"/>
       <c r="G127" s="123"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A129" s="75"/>
-      <c r="B129" s="129" t="s">
+      <c r="H127" s="123"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B129" s="75"/>
+      <c r="C129" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="C129" s="130"/>
       <c r="D129" s="130"/>
       <c r="E129" s="130"/>
       <c r="F129" s="130"/>
-      <c r="G129" s="75"/>
+      <c r="G129" s="130"/>
       <c r="H129" s="75"/>
       <c r="I129" s="75"/>
       <c r="J129" s="75"/>
@@ -13860,9 +13851,9 @@
       <c r="Q129" s="75"/>
       <c r="R129" s="75"/>
       <c r="S129" s="75"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A130" s="75"/>
+      <c r="T129" s="75"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B130" s="75"/>
       <c r="C130" s="75"/>
       <c r="D130" s="75"/>
@@ -13881,14 +13872,14 @@
       <c r="Q130" s="75"/>
       <c r="R130" s="75"/>
       <c r="S130" s="75"/>
-    </row>
-    <row r="131" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A131" s="75"/>
+      <c r="T130" s="75"/>
+    </row>
+    <row r="131" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B131" s="75"/>
-      <c r="C131" s="133" t="s">
+      <c r="C131" s="75"/>
+      <c r="D131" s="133" t="s">
         <v>474</v>
       </c>
-      <c r="D131" s="75"/>
       <c r="E131" s="75"/>
       <c r="F131" s="75"/>
       <c r="G131" s="75"/>
@@ -13904,11 +13895,11 @@
       <c r="Q131" s="75"/>
       <c r="R131" s="75"/>
       <c r="S131" s="75"/>
-    </row>
-    <row r="132" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="112"/>
-      <c r="B132" s="75"/>
-      <c r="C132" s="112"/>
+      <c r="T131" s="75"/>
+    </row>
+    <row r="132" spans="2:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="112"/>
+      <c r="C132" s="75"/>
       <c r="D132" s="112"/>
       <c r="E132" s="112"/>
       <c r="F132" s="112"/>
@@ -13925,14 +13916,14 @@
       <c r="Q132" s="112"/>
       <c r="R132" s="112"/>
       <c r="S132" s="112"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A133" s="75"/>
+      <c r="T132" s="112"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B133" s="75"/>
-      <c r="C133" s="75" t="s">
+      <c r="C133" s="75"/>
+      <c r="D133" s="75" t="s">
         <v>475</v>
       </c>
-      <c r="D133" s="75"/>
       <c r="E133" s="75"/>
       <c r="F133" s="75"/>
       <c r="G133" s="75"/>
@@ -13948,14 +13939,14 @@
       <c r="Q133" s="75"/>
       <c r="R133" s="75"/>
       <c r="S133" s="75"/>
-    </row>
-    <row r="134" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A134" s="75"/>
+      <c r="T133" s="75"/>
+    </row>
+    <row r="134" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B134" s="75"/>
-      <c r="C134" s="134" t="s">
+      <c r="C134" s="75"/>
+      <c r="D134" s="134" t="s">
         <v>476</v>
       </c>
-      <c r="D134" s="75"/>
       <c r="E134" s="75"/>
       <c r="F134" s="75"/>
       <c r="G134" s="75"/>
@@ -13971,9 +13962,9 @@
       <c r="Q134" s="75"/>
       <c r="R134" s="75"/>
       <c r="S134" s="75"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A135" s="75"/>
+      <c r="T134" s="75"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B135" s="75"/>
       <c r="C135" s="75"/>
       <c r="D135" s="75"/>
@@ -13992,19 +13983,19 @@
       <c r="Q135" s="75"/>
       <c r="R135" s="75"/>
       <c r="S135" s="75"/>
-    </row>
-    <row r="136" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="112"/>
-      <c r="B136" s="75"/>
-      <c r="C136" s="100" t="s">
+      <c r="T135" s="75"/>
+    </row>
+    <row r="136" spans="2:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="112"/>
+      <c r="C136" s="75"/>
+      <c r="D136" s="100" t="s">
         <v>477</v>
       </c>
-      <c r="D136" s="101"/>
       <c r="E136" s="101"/>
       <c r="F136" s="101"/>
       <c r="G136" s="101"/>
       <c r="H136" s="101"/>
-      <c r="I136" s="112"/>
+      <c r="I136" s="101"/>
       <c r="J136" s="112"/>
       <c r="K136" s="112"/>
       <c r="L136" s="112"/>
@@ -14015,9 +14006,9 @@
       <c r="Q136" s="112"/>
       <c r="R136" s="112"/>
       <c r="S136" s="112"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A137" s="75"/>
+      <c r="T136" s="112"/>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B137" s="75"/>
       <c r="C137" s="75"/>
       <c r="D137" s="75"/>
@@ -14036,14 +14027,14 @@
       <c r="Q137" s="75"/>
       <c r="R137" s="75"/>
       <c r="S137" s="75"/>
-    </row>
-    <row r="138" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A138" s="75"/>
+      <c r="T137" s="75"/>
+    </row>
+    <row r="138" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B138" s="75"/>
-      <c r="C138" s="133" t="s">
+      <c r="C138" s="75"/>
+      <c r="D138" s="133" t="s">
         <v>478</v>
       </c>
-      <c r="D138" s="75"/>
       <c r="E138" s="75"/>
       <c r="F138" s="75"/>
       <c r="G138" s="75"/>
@@ -14059,15 +14050,15 @@
       <c r="Q138" s="75"/>
       <c r="R138" s="75"/>
       <c r="S138" s="75"/>
-    </row>
-    <row r="139" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A139" s="75"/>
+      <c r="T138" s="75"/>
+    </row>
+    <row r="139" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B139" s="75"/>
       <c r="C139" s="75"/>
-      <c r="D139" s="133" t="s">
+      <c r="D139" s="75"/>
+      <c r="E139" s="133" t="s">
         <v>482</v>
       </c>
-      <c r="E139" s="75"/>
       <c r="F139" s="75"/>
       <c r="G139" s="75"/>
       <c r="H139" s="75"/>
@@ -14082,15 +14073,15 @@
       <c r="Q139" s="75"/>
       <c r="R139" s="75"/>
       <c r="S139" s="75"/>
-    </row>
-    <row r="140" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A140" s="75"/>
+      <c r="T139" s="75"/>
+    </row>
+    <row r="140" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B140" s="75"/>
       <c r="C140" s="75"/>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="75"/>
+      <c r="E140" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E140" s="75"/>
       <c r="F140" s="75"/>
       <c r="G140" s="75"/>
       <c r="H140" s="75"/>
@@ -14105,15 +14096,15 @@
       <c r="Q140" s="75"/>
       <c r="R140" s="75"/>
       <c r="S140" s="75"/>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A141" s="75"/>
+      <c r="T140" s="75"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B141" s="75"/>
       <c r="C141" s="75"/>
-      <c r="D141" s="75" t="s">
+      <c r="D141" s="75"/>
+      <c r="E141" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="E141" s="75"/>
       <c r="F141" s="75"/>
       <c r="G141" s="75"/>
       <c r="H141" s="75"/>
@@ -14128,11 +14119,11 @@
       <c r="Q141" s="75"/>
       <c r="R141" s="75"/>
       <c r="S141" s="75"/>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A142" s="75"/>
-      <c r="B142" s="112"/>
-      <c r="C142" s="75"/>
+      <c r="T141" s="75"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B142" s="75"/>
+      <c r="C142" s="112"/>
       <c r="D142" s="75"/>
       <c r="E142" s="75"/>
       <c r="F142" s="75"/>
@@ -14149,14 +14140,14 @@
       <c r="Q142" s="75"/>
       <c r="R142" s="75"/>
       <c r="S142" s="75"/>
-    </row>
-    <row r="143" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A143" s="75"/>
+      <c r="T142" s="75"/>
+    </row>
+    <row r="143" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B143" s="75"/>
-      <c r="C143" s="133" t="s">
+      <c r="C143" s="75"/>
+      <c r="D143" s="133" t="s">
         <v>481</v>
       </c>
-      <c r="D143" s="75"/>
       <c r="E143" s="75"/>
       <c r="F143" s="75"/>
       <c r="G143" s="75"/>
@@ -14172,42 +14163,42 @@
       <c r="Q143" s="75"/>
       <c r="R143" s="75"/>
       <c r="S143" s="75"/>
-    </row>
-    <row r="144" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A144" s="75"/>
+      <c r="T143" s="75"/>
+    </row>
+    <row r="144" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B144" s="75"/>
       <c r="C144" s="75"/>
-      <c r="D144" s="133" t="s">
+      <c r="D144" s="75"/>
+      <c r="E144" s="133" t="s">
         <v>483</v>
       </c>
-      <c r="E144" s="75"/>
       <c r="F144" s="75"/>
       <c r="G144" s="75"/>
       <c r="H144" s="75"/>
       <c r="I144" s="75"/>
       <c r="J144" s="75"/>
       <c r="K144" s="75"/>
-      <c r="L144" s="82"/>
-      <c r="M144" s="75"/>
+      <c r="L144" s="75"/>
+      <c r="M144" s="82"/>
       <c r="N144" s="75"/>
       <c r="O144" s="75"/>
       <c r="P144" s="75"/>
       <c r="Q144" s="75"/>
       <c r="R144" s="75"/>
       <c r="S144" s="75"/>
-    </row>
-    <row r="145" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A145" s="75"/>
+      <c r="T144" s="75"/>
+    </row>
+    <row r="145" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B145" s="75"/>
       <c r="C145" s="75"/>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="75"/>
+      <c r="E145" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="E145" s="75"/>
-      <c r="F145" s="135" t="s">
+      <c r="F145" s="75"/>
+      <c r="G145" s="135" t="s">
         <v>490</v>
       </c>
-      <c r="G145" s="75"/>
       <c r="H145" s="75"/>
       <c r="I145" s="75"/>
       <c r="J145" s="75"/>
@@ -14220,9 +14211,9 @@
       <c r="Q145" s="75"/>
       <c r="R145" s="75"/>
       <c r="S145" s="75"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A146" s="75"/>
+      <c r="T145" s="75"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B146" s="75"/>
       <c r="C146" s="75"/>
       <c r="D146" s="75"/>
@@ -14241,14 +14232,14 @@
       <c r="Q146" s="75"/>
       <c r="R146" s="75"/>
       <c r="S146" s="75"/>
-    </row>
-    <row r="147" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A147" s="75"/>
+      <c r="T146" s="75"/>
+    </row>
+    <row r="147" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B147" s="75"/>
-      <c r="C147" s="133" t="s">
+      <c r="C147" s="75"/>
+      <c r="D147" s="133" t="s">
         <v>485</v>
       </c>
-      <c r="D147" s="75"/>
       <c r="E147" s="75"/>
       <c r="F147" s="75"/>
       <c r="G147" s="75"/>
@@ -14264,15 +14255,15 @@
       <c r="Q147" s="75"/>
       <c r="R147" s="75"/>
       <c r="S147" s="75"/>
-    </row>
-    <row r="148" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A148" s="75"/>
+      <c r="T147" s="75"/>
+    </row>
+    <row r="148" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B148" s="75"/>
       <c r="C148" s="75"/>
-      <c r="D148" s="133" t="s">
+      <c r="D148" s="75"/>
+      <c r="E148" s="133" t="s">
         <v>486</v>
       </c>
-      <c r="E148" s="75"/>
       <c r="F148" s="75"/>
       <c r="G148" s="75"/>
       <c r="H148" s="75"/>
@@ -14287,15 +14278,15 @@
       <c r="Q148" s="75"/>
       <c r="R148" s="75"/>
       <c r="S148" s="75"/>
-    </row>
-    <row r="149" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A149" s="75"/>
+      <c r="T148" s="75"/>
+    </row>
+    <row r="149" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B149" s="75"/>
       <c r="C149" s="75"/>
-      <c r="D149" s="131" t="s">
+      <c r="D149" s="75"/>
+      <c r="E149" s="131" t="s">
         <v>488</v>
       </c>
-      <c r="E149" s="75"/>
       <c r="F149" s="75"/>
       <c r="G149" s="75"/>
       <c r="H149" s="75"/>
@@ -14310,15 +14301,15 @@
       <c r="Q149" s="75"/>
       <c r="R149" s="75"/>
       <c r="S149" s="75"/>
-    </row>
-    <row r="150" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A150" s="75"/>
+      <c r="T149" s="75"/>
+    </row>
+    <row r="150" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B150" s="75"/>
       <c r="C150" s="75"/>
-      <c r="D150" s="133" t="s">
+      <c r="D150" s="75"/>
+      <c r="E150" s="133" t="s">
         <v>487</v>
       </c>
-      <c r="E150" s="75"/>
       <c r="F150" s="75"/>
       <c r="G150" s="75"/>
       <c r="H150" s="75"/>
@@ -14333,9 +14324,9 @@
       <c r="Q150" s="75"/>
       <c r="R150" s="75"/>
       <c r="S150" s="75"/>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A151" s="75"/>
+      <c r="T150" s="75"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B151" s="75"/>
       <c r="C151" s="75"/>
       <c r="D151" s="75"/>
@@ -14354,17 +14345,17 @@
       <c r="Q151" s="75"/>
       <c r="R151" s="75"/>
       <c r="S151" s="75"/>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A152" s="75"/>
-      <c r="B152" s="129" t="s">
+      <c r="T151" s="75"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B152" s="75"/>
+      <c r="C152" s="129" t="s">
         <v>489</v>
       </c>
-      <c r="C152" s="130"/>
       <c r="D152" s="130"/>
       <c r="E152" s="130"/>
       <c r="F152" s="130"/>
-      <c r="G152" s="75"/>
+      <c r="G152" s="130"/>
       <c r="H152" s="75"/>
       <c r="I152" s="75"/>
       <c r="J152" s="75"/>
@@ -14377,10 +14368,10 @@
       <c r="Q152" s="75"/>
       <c r="R152" s="75"/>
       <c r="S152" s="75"/>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A153" s="75"/>
-      <c r="G153" s="75"/>
+      <c r="T152" s="75"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B153" s="75"/>
       <c r="H153" s="75"/>
       <c r="I153" s="75"/>
       <c r="J153" s="75"/>
@@ -14393,14 +14384,14 @@
       <c r="Q153" s="75"/>
       <c r="R153" s="75"/>
       <c r="S153" s="75"/>
-    </row>
-    <row r="154" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A154" s="75"/>
+      <c r="T153" s="75"/>
+    </row>
+    <row r="154" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B154" s="75"/>
-      <c r="C154" s="133" t="s">
+      <c r="C154" s="75"/>
+      <c r="D154" s="133" t="s">
         <v>505</v>
       </c>
-      <c r="D154" s="75"/>
       <c r="E154" s="75"/>
       <c r="F154" s="75"/>
       <c r="G154" s="75"/>
@@ -14416,9 +14407,9 @@
       <c r="Q154" s="75"/>
       <c r="R154" s="75"/>
       <c r="S154" s="75"/>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A155" s="75"/>
+      <c r="T154" s="75"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B155" s="75"/>
       <c r="C155" s="75"/>
       <c r="D155" s="75"/>
@@ -14437,14 +14428,14 @@
       <c r="Q155" s="75"/>
       <c r="R155" s="75"/>
       <c r="S155" s="75"/>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A156" s="75"/>
+      <c r="T155" s="75"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B156" s="75"/>
-      <c r="C156" s="75" t="s">
+      <c r="C156" s="75"/>
+      <c r="D156" s="75" t="s">
         <v>504</v>
       </c>
-      <c r="D156" s="75"/>
       <c r="E156" s="75"/>
       <c r="F156" s="75"/>
       <c r="G156" s="75"/>
@@ -14460,9 +14451,9 @@
       <c r="Q156" s="75"/>
       <c r="R156" s="75"/>
       <c r="S156" s="75"/>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A157" s="75"/>
+      <c r="T156" s="75"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B157" s="75"/>
       <c r="C157" s="75"/>
       <c r="D157" s="75"/>
@@ -14481,14 +14472,14 @@
       <c r="Q157" s="75"/>
       <c r="R157" s="75"/>
       <c r="S157" s="75"/>
-    </row>
-    <row r="158" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A158" s="75"/>
+      <c r="T157" s="75"/>
+    </row>
+    <row r="158" spans="2:20" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B158" s="75"/>
-      <c r="C158" s="133" t="s">
+      <c r="C158" s="75"/>
+      <c r="D158" s="133" t="s">
         <v>503</v>
       </c>
-      <c r="D158" s="75"/>
       <c r="E158" s="75"/>
       <c r="F158" s="75"/>
       <c r="G158" s="75"/>
@@ -14504,9 +14495,9 @@
       <c r="Q158" s="75"/>
       <c r="R158" s="75"/>
       <c r="S158" s="75"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A159" s="75"/>
+      <c r="T158" s="75"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B159" s="75"/>
       <c r="C159" s="75"/>
       <c r="D159" s="75"/>
@@ -14525,9 +14516,9 @@
       <c r="Q159" s="75"/>
       <c r="R159" s="75"/>
       <c r="S159" s="75"/>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A160" s="75"/>
+      <c r="T159" s="75"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B160" s="75"/>
       <c r="C160" s="75"/>
       <c r="D160" s="75"/>
@@ -14546,9 +14537,9 @@
       <c r="Q160" s="75"/>
       <c r="R160" s="75"/>
       <c r="S160" s="75"/>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A161" s="75"/>
+      <c r="T160" s="75"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B161" s="75"/>
       <c r="C161" s="75"/>
       <c r="D161" s="75"/>
@@ -14567,13 +14558,13 @@
       <c r="Q161" s="75"/>
       <c r="R161" s="75"/>
       <c r="S161" s="75"/>
-    </row>
-    <row r="162" spans="1:19" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A162" s="75"/>
-      <c r="B162" s="133" t="s">
+      <c r="T161" s="75"/>
+    </row>
+    <row r="162" spans="1:20" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="B162" s="75"/>
+      <c r="C162" s="133" t="s">
         <v>501</v>
       </c>
-      <c r="C162" s="75"/>
       <c r="D162" s="75"/>
       <c r="E162" s="75"/>
       <c r="F162" s="75"/>
@@ -14590,16 +14581,16 @@
       <c r="Q162" s="75"/>
       <c r="R162" s="75"/>
       <c r="S162" s="75"/>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A163" s="75"/>
-      <c r="B163" s="26" t="s">
+      <c r="T162" s="75"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B163" s="75"/>
+      <c r="C163" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C163" s="26" t="s">
+      <c r="D163" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D163" s="75"/>
       <c r="E163" s="75"/>
       <c r="F163" s="75"/>
       <c r="G163" s="75"/>
@@ -14615,22 +14606,22 @@
       <c r="Q163" s="75"/>
       <c r="R163" s="75"/>
       <c r="S163" s="75"/>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A164" s="75"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26" t="s">
+      <c r="T163" s="75"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B164" s="75"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="D164" s="46"/>
       <c r="E164" s="46"/>
       <c r="F164" s="46"/>
-      <c r="G164" s="113"/>
-      <c r="H164" s="114"/>
-      <c r="I164" s="75"/>
+      <c r="G164" s="46"/>
+      <c r="H164" s="113"/>
+      <c r="I164" s="114"/>
       <c r="J164" s="75"/>
-      <c r="K164" s="46"/>
-      <c r="L164" s="75"/>
+      <c r="K164" s="75"/>
+      <c r="L164" s="46"/>
       <c r="M164" s="75"/>
       <c r="N164" s="75"/>
       <c r="O164" s="75"/>
@@ -14638,9 +14629,9 @@
       <c r="Q164" s="75"/>
       <c r="R164" s="75"/>
       <c r="S164" s="75"/>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A165" s="75"/>
+      <c r="T164" s="75"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B165" s="75"/>
       <c r="C165" s="75"/>
       <c r="D165" s="75"/>
@@ -14650,8 +14641,8 @@
       <c r="H165" s="75"/>
       <c r="I165" s="75"/>
       <c r="J165" s="75"/>
-      <c r="K165" s="112"/>
-      <c r="L165" s="75"/>
+      <c r="K165" s="75"/>
+      <c r="L165" s="112"/>
       <c r="M165" s="75"/>
       <c r="N165" s="75"/>
       <c r="O165" s="75"/>
@@ -14659,19 +14650,20 @@
       <c r="Q165" s="75"/>
       <c r="R165" s="75"/>
       <c r="S165" s="75"/>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A166" s="47" t="s">
+      <c r="T165" s="75"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B166" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B166" s="47"/>
       <c r="C166" s="47"/>
-      <c r="D166" s="74"/>
-      <c r="E166" s="84" t="s">
+      <c r="D166" s="47"/>
+      <c r="E166" s="74"/>
+      <c r="F166" s="84" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="89" t="s">
         <v>82</v>
       </c>
@@ -14688,8 +14680,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I52" location="黄昏メリーゴーランド!A1" display="黄昏メリーゴーランド" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="E166" location="タイムライン!BA2" display="タイムライン" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="J52" location="黄昏メリーゴーランド!A1" display="黄昏メリーゴーランド" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="F166" location="タイムライン!BA2" display="タイムライン" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
     <hyperlink ref="D170" location="夢幻パラダイス!A1" display="トップに戻る" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14705,8 +14697,8 @@
   </sheetPr>
   <dimension ref="A1:BF69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -15661,11 +15653,11 @@
       <c r="B18" s="31">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="138" t="s">
         <v>316</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
       <c r="K18" s="61">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
@@ -15725,9 +15717,9 @@
       <c r="B19" s="31">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
       <c r="K19" s="61"/>
       <c r="T19" s="61">
         <f t="shared" si="3"/>
@@ -16022,11 +16014,11 @@
       <c r="B25" s="55">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="139" t="s">
         <v>341</v>
       </c>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
       <c r="L25" s="34" t="s">
         <v>241</v>
       </c>
@@ -16071,9 +16063,9 @@
       <c r="B26" s="55">
         <v>0.12847222222222224</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
       <c r="T26" s="61">
         <f t="shared" si="3"/>
         <v>0.11944444444444444</v>
@@ -16326,11 +16318,11 @@
       <c r="B33" s="115">
         <v>0.14305555555555557</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
       <c r="T33" s="61"/>
       <c r="AM33" s="63"/>
       <c r="AN33" s="33"/>
@@ -16356,9 +16348,9 @@
       <c r="B34" s="115">
         <v>0.1763888888888889</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
       <c r="T34" s="61">
         <f t="shared" si="3"/>
         <v>0.12847222222222221</v>
@@ -16413,11 +16405,11 @@
       <c r="B36" s="55">
         <v>0.18333333333333335</v>
       </c>
-      <c r="C36" s="141" t="s">
+      <c r="C36" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
       <c r="T36" s="62"/>
       <c r="V36" s="26" t="s">
         <v>434</v>
@@ -16458,9 +16450,9 @@
       <c r="B37" s="55">
         <v>0.25138888888888888</v>
       </c>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
       <c r="AM37" s="63"/>
       <c r="AN37" s="126"/>
       <c r="AO37" s="61"/>
@@ -16592,11 +16584,11 @@
       <c r="B44" s="31">
         <v>0.26944444444444443</v>
       </c>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="138" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
       <c r="AP44" s="34" t="s">
         <v>240</v>
       </c>
@@ -16606,9 +16598,9 @@
       <c r="B45" s="31">
         <v>0.31319444444444444</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
     </row>
     <row r="46" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="111"/>
